--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-14-filter-with-logic-asterix.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-14-filter-with-logic-asterix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FB912A1A-37E4-41FD-991F-2529B59E5763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DFC6AE7-0756-43DD-81CC-4DB4C656E048}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236BDAF-D759-4431-AC1D-852C5ADBA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="FILTER" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>Ming Sia</t>
   </si>
@@ -193,13 +215,19 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>"*" = AND</t>
+  </si>
+  <si>
+    <t>Rain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +244,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -253,17 +288,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -274,6 +338,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31D5E507-BE7C-4943-B8EF-D41C2C683356}" name="Students" displayName="Students" ref="A3:D42" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:D42" xr:uid="{31D5E507-BE7C-4943-B8EF-D41C2C683356}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6F3AC253-534D-42E9-A4B3-47A8A62E8363}" name="Student"/>
+    <tableColumn id="2" xr3:uid="{BC3EA925-E212-4EAF-92E8-CE61E2E53CA6}" name="Exam"/>
+    <tableColumn id="3" xr3:uid="{0A44046D-3896-4C11-AD3B-10114B9D2804}" name="Grade"/>
+    <tableColumn id="4" xr3:uid="{E6019C12-76FC-455C-AA3C-0983549B58B2}" name="Date" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,37 +608,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="13.875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -613,7 +690,20 @@
         <v>44562</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4:K6">_xlfn._xlws.FILTER(Students[],(Students[Exam]=F4)*(Students[Grade]=F12),"No Records")</f>
+        <v>Amber Franklin</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="J4" t="str">
+        <v>A</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44568</v>
       </c>
       <c r="M4" t="s">
         <v>25</v>
@@ -625,7 +715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -638,6 +728,18 @@
       <c r="D5" s="2">
         <v>44563</v>
       </c>
+      <c r="H5" t="str">
+        <v>Damon Powers</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="J5" t="str">
+        <v>A</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44594</v>
+      </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
@@ -648,7 +750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -661,6 +763,18 @@
       <c r="D6" s="2">
         <v>44564</v>
       </c>
+      <c r="H6" t="str">
+        <v>Rain</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="J6" t="str">
+        <v>A</v>
+      </c>
+      <c r="K6" s="2">
+        <v>44600</v>
+      </c>
       <c r="M6" t="s">
         <v>27</v>
       </c>
@@ -671,7 +785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -694,7 +808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -717,7 +831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -734,7 +848,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -751,7 +865,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -771,7 +885,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -785,13 +899,13 @@
         <v>44570</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N12" s="2">
         <v>44571</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -808,7 +922,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -825,7 +939,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -842,7 +956,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -859,7 +973,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -876,7 +990,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -893,7 +1007,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -910,7 +1024,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -927,7 +1041,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -944,7 +1058,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -961,7 +1075,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -974,11 +1088,14 @@
       <c r="D23" s="2">
         <v>44581</v>
       </c>
+      <c r="F23" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="N23" s="2">
         <v>44582</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -995,7 +1112,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1012,7 +1129,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1029,7 +1146,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1046,7 +1163,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1063,7 +1180,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1080,7 +1197,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1214,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1114,7 +1231,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1131,7 +1248,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1148,7 +1265,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1165,7 +1282,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1182,7 +1299,7 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1316,7 @@
         <v>44595</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1333,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1233,7 +1350,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1250,7 +1367,7 @@
         <v>44598</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1267,7 +1384,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1279,6 +1396,20 @@
       </c>
       <c r="D41" s="2">
         <v>44599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44600</v>
       </c>
     </row>
   </sheetData>
@@ -1298,5 +1429,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>